--- a/data/trans_dic/P21_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1584496034809446</v>
+        <v>0.1585300709908647</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1982031429246663</v>
+        <v>0.1979331722561519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1633637236992205</v>
+        <v>0.1635321888991603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.206514306694337</v>
+        <v>0.207140541522774</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2797570404724463</v>
+        <v>0.2790114687690349</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3223841728493594</v>
+        <v>0.3238212861623267</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2032690553401772</v>
+        <v>0.2039399712811839</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2771267533368367</v>
+        <v>0.2750681785329636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2400220312365389</v>
+        <v>0.2412663434232195</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2713801796089504</v>
+        <v>0.2710038849281647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1906506745685651</v>
+        <v>0.1907252028405853</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2536727957263084</v>
+        <v>0.2550931402078256</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2258493775898179</v>
+        <v>0.2231534276610112</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.252649164801544</v>
+        <v>0.2546144575957452</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2096118894569171</v>
+        <v>0.2109169796484212</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2897839120526221</v>
+        <v>0.2915260421643346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3412325628861128</v>
+        <v>0.3394086874816024</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3784629618509393</v>
+        <v>0.3846228667459379</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2515263718767632</v>
+        <v>0.2520268420883093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3404437823387765</v>
+        <v>0.3415682262141387</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2859002152579848</v>
+        <v>0.2892224047916421</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3102958759412911</v>
+        <v>0.3129665804042337</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2237516931414577</v>
+        <v>0.2238778864764706</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3067501121009449</v>
+        <v>0.3076005537576645</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2013228894621449</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2288314835315175</v>
+        <v>0.2288314835315174</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1937592318963949</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1467534201775705</v>
+        <v>0.145138994741051</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1814750334014431</v>
+        <v>0.1835333199448568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1410909776756987</v>
+        <v>0.1409133170828661</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1523912213838841</v>
+        <v>0.1514356506266793</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1941080752824884</v>
+        <v>0.1956927713475775</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2308088504065812</v>
+        <v>0.2308780584102598</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1773515314225579</v>
+        <v>0.1782006309273124</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2064358946236288</v>
+        <v>0.20878710644359</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.177971427780634</v>
+        <v>0.1777222993825338</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.215229567698611</v>
+        <v>0.2152384600918001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1672863281904101</v>
+        <v>0.1650681255149665</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1864797829949912</v>
+        <v>0.186827184991368</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1927679566200446</v>
+        <v>0.1924466044716623</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2388051950596127</v>
+        <v>0.2380856523526282</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1924198074772886</v>
+        <v>0.1926666110372261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2051113458086365</v>
+        <v>0.2066682784602285</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2469806433302138</v>
+        <v>0.246303556137902</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2837651003098728</v>
+        <v>0.2860021862880954</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2299647187663087</v>
+        <v>0.2321481543931175</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2482526582854092</v>
+        <v>0.2530875631607314</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.213388409858093</v>
+        <v>0.2126296196786874</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2539548849471668</v>
+        <v>0.2532814109984363</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2036457713837565</v>
+        <v>0.2031341495767429</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2217437007258752</v>
+        <v>0.2214581149962268</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.137317611785642</v>
+        <v>0.1395778517254866</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1783980211137844</v>
+        <v>0.1757724361326529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1147982070895532</v>
+        <v>0.1161824879993455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1639029098287079</v>
+        <v>0.1627403885892299</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2092747255820546</v>
+        <v>0.2123655514771239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1967329201233172</v>
+        <v>0.1959490615059095</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1781139753584433</v>
+        <v>0.1770080882169799</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2313080979703689</v>
+        <v>0.2319193923821707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1790976111172981</v>
+        <v>0.1800260912831525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.192780870166882</v>
+        <v>0.1935137966780836</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1533835245940571</v>
+        <v>0.1552286963496364</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2037626073139416</v>
+        <v>0.2040620820127672</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.183366620841785</v>
+        <v>0.18356171755082</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.233551549733989</v>
+        <v>0.2331488277247828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1645008072541453</v>
+        <v>0.1676305479134592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2159864396605174</v>
+        <v>0.2185751160337741</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2640601567377108</v>
+        <v>0.2684550451764072</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2516025804224522</v>
+        <v>0.2530197071002863</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.239405403312518</v>
+        <v>0.2357545758727728</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2774817722293598</v>
+        <v>0.2780718776432263</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2133623079779542</v>
+        <v>0.2145417901190414</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2335610689772048</v>
+        <v>0.2343859917858835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.191798825895587</v>
+        <v>0.1937528814734139</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2421671436394798</v>
+        <v>0.2395959183387139</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1475418747743215</v>
+        <v>0.145332909129833</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1316066913683867</v>
+        <v>0.1295056970672184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1410701656678876</v>
+        <v>0.1402681468372202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2058633643872012</v>
+        <v>0.2123449271444126</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1360220057188989</v>
+        <v>0.1369405484634316</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1898765553297273</v>
+        <v>0.191090466350643</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1870515233578817</v>
+        <v>0.1908793482002341</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2028651909165242</v>
+        <v>0.2052642313381286</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1512679818713362</v>
+        <v>0.1484134675040437</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1674874625903358</v>
+        <v>0.1690896097139135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1755553748617827</v>
+        <v>0.1745214736174237</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2147420076472678</v>
+        <v>0.2156631946672156</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2262534867357736</v>
+        <v>0.21757812424502</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2012356204726164</v>
+        <v>0.2015224549921265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2105109895919333</v>
+        <v>0.2080544871863968</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2674863235090559</v>
+        <v>0.2753030453282022</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2191431295179609</v>
+        <v>0.2159191190653441</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2723296513007211</v>
+        <v>0.2728997493643397</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2678456993787611</v>
+        <v>0.2700167029018818</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2580111557132626</v>
+        <v>0.2573641060021316</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2070854142692388</v>
+        <v>0.2043129258902479</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2216583037383226</v>
+        <v>0.2210412573186198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2247791973770697</v>
+        <v>0.2282735428924697</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2563560693154879</v>
+        <v>0.2565791051877601</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1571757773352506</v>
+        <v>0.157768003880003</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1937829651312546</v>
+        <v>0.1936613612087311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1532568727725979</v>
+        <v>0.1540813998905597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1945030704951865</v>
+        <v>0.1936606163040853</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2294484279808134</v>
+        <v>0.2292231047596845</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2586626923731312</v>
+        <v>0.2583925975982326</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.19986264813741</v>
+        <v>0.2016495860489227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2370487501313941</v>
+        <v>0.2373224633458316</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.198425981210904</v>
+        <v>0.1994526357933536</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2312450113709098</v>
+        <v>0.2304175553364083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1819669993712431</v>
+        <v>0.1815115010140185</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.219215682218787</v>
+        <v>0.2190111681261708</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1840545697740361</v>
+        <v>0.1840593070124439</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2216878730320237</v>
+        <v>0.2221547545404551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1795107869448336</v>
+        <v>0.1811287946182617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2228790594307945</v>
+        <v>0.2247320685855846</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2588234955376796</v>
+        <v>0.2597029300353109</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2901699977669333</v>
+        <v>0.2888907833396711</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2295349488125385</v>
+        <v>0.231008453522058</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2627386640831578</v>
+        <v>0.2626472039971431</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2191162240293576</v>
+        <v>0.2193792718534305</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2516444465123056</v>
+        <v>0.2522818964233811</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2017977057905826</v>
+        <v>0.2009638416019473</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2397352569192074</v>
+        <v>0.2393973954861864</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>92557</v>
+        <v>92604</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>206578</v>
+        <v>206297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>184067</v>
+        <v>184257</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>102997</v>
+        <v>103309</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>258029</v>
+        <v>257341</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>360735</v>
+        <v>362343</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>255853</v>
+        <v>256698</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>172811</v>
+        <v>171527</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>361587</v>
+        <v>363461</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>586510</v>
+        <v>585697</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>454783</v>
+        <v>454960</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>284702</v>
+        <v>286296</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>131928</v>
+        <v>130353</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>263325</v>
+        <v>265373</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>236176</v>
+        <v>237647</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>144527</v>
+        <v>145395</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>314730</v>
+        <v>313048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>423485</v>
+        <v>430377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>316594</v>
+        <v>317224</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>212294</v>
+        <v>212995</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>430701</v>
+        <v>435706</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>670615</v>
+        <v>676387</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>533742</v>
+        <v>534043</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>344272</v>
+        <v>345226</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>158185</v>
+        <v>156444</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>177133</v>
+        <v>179142</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>127726</v>
+        <v>127565</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>146316</v>
+        <v>145399</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>205277</v>
+        <v>206953</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>252293</v>
+        <v>252369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>178274</v>
+        <v>179128</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>230085</v>
+        <v>232705</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>380046</v>
+        <v>379514</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>445344</v>
+        <v>445362</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>319597</v>
+        <v>315359</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>386888</v>
+        <v>387609</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>207783</v>
+        <v>207437</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>233091</v>
+        <v>232389</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>174193</v>
+        <v>174416</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>196935</v>
+        <v>198430</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>261191</v>
+        <v>260475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>310179</v>
+        <v>312624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>231161</v>
+        <v>233356</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>276692</v>
+        <v>282081</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>455676</v>
+        <v>454056</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>525473</v>
+        <v>524079</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>389061</v>
+        <v>388084</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>460050</v>
+        <v>459458</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>154015</v>
+        <v>156550</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>157903</v>
+        <v>155579</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>94112</v>
+        <v>95247</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>171521</v>
+        <v>170304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>207810</v>
+        <v>210879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>172109</v>
+        <v>171423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>137179</v>
+        <v>136327</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>241814</v>
+        <v>242453</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>378719</v>
+        <v>380682</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>339285</v>
+        <v>340575</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>243876</v>
+        <v>246810</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>426250</v>
+        <v>426877</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>205663</v>
+        <v>205882</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>206720</v>
+        <v>206364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>134858</v>
+        <v>137424</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>226025</v>
+        <v>228734</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>262211</v>
+        <v>266576</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>220111</v>
+        <v>221351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>184384</v>
+        <v>181572</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>290084</v>
+        <v>290701</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>451175</v>
+        <v>453669</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>411056</v>
+        <v>412508</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>304956</v>
+        <v>308063</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>506589</v>
+        <v>501210</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>65850</v>
+        <v>64864</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66201</v>
+        <v>65144</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71346</v>
+        <v>70940</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>200502</v>
+        <v>206815</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46405</v>
+        <v>46718</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>85964</v>
+        <v>86514</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>91258</v>
+        <v>93126</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>183754</v>
+        <v>185928</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119119</v>
+        <v>116872</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>160077</v>
+        <v>161609</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>174436</v>
+        <v>173409</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>403662</v>
+        <v>405394</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>100980</v>
+        <v>97108</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101226</v>
+        <v>101370</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>106465</v>
+        <v>105223</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>260521</v>
+        <v>268134</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74762</v>
+        <v>73663</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>123293</v>
+        <v>123552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>130676</v>
+        <v>131735</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>233705</v>
+        <v>233119</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>163074</v>
+        <v>160891</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>211852</v>
+        <v>211262</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>223346</v>
+        <v>226818</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>481887</v>
+        <v>482306</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>507669</v>
+        <v>509582</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>660115</v>
+        <v>659700</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>514568</v>
+        <v>517337</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>676737</v>
+        <v>673806</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>760399</v>
+        <v>759652</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>915567</v>
+        <v>914611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>703906</v>
+        <v>710200</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>874556</v>
+        <v>875566</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1298494</v>
+        <v>1305212</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1606247</v>
+        <v>1600499</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1251843</v>
+        <v>1248709</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1571484</v>
+        <v>1570018</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>594486</v>
+        <v>594501</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>755172</v>
+        <v>756762</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>602717</v>
+        <v>608150</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>775466</v>
+        <v>781913</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>857748</v>
+        <v>860663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1027090</v>
+        <v>1022562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>808411</v>
+        <v>813600</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>969335</v>
+        <v>968998</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1433890</v>
+        <v>1435612</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1747943</v>
+        <v>1752370</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1388268</v>
+        <v>1382532</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1718582</v>
+        <v>1716160</v>
       </c>
     </row>
     <row r="24">
